--- a/Assets/Core/Data/Excel/Enemy.xlsx
+++ b/Assets/Core/Data/Excel/Enemy.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\zDefend\DEV\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB3615-6A4B-4F0B-8625-64FBDE91E8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F80CCC1-E9C7-401C-AB63-D372546476FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
-    <sheet name="Enemy Level up stat" sheetId="3" r:id="rId2"/>
+    <sheet name="EnemyLevelUpStat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,26 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="148">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="138">
   <si>
     <t>AI</t>
   </si>
   <si>
-    <t>STATS</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
-    <t>HP Regen</t>
-  </si>
-  <si>
     <t>Damage</t>
   </si>
   <si>
@@ -55,22 +43,7 @@
     <t>Armor</t>
   </si>
   <si>
-    <t>Attack speed</t>
-  </si>
-  <si>
-    <t>Crit rate</t>
-  </si>
-  <si>
-    <t>Attack range</t>
-  </si>
-  <si>
     <t>Invisible</t>
-  </si>
-  <si>
-    <t>Coin Drop</t>
-  </si>
-  <si>
-    <t>Gem Drop</t>
   </si>
   <si>
     <t>Electric</t>
@@ -521,9 +494,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Crit damage</t>
-  </si>
-  <si>
     <t>Thân hình người nhưng có cái đầu và 4 cánh tay như những cái vòi con bạch tuộc. Né tránh cao</t>
   </si>
   <si>
@@ -533,9 +503,6 @@
     <t>Là 1 con robo hình người, to tròn với lớp giáp siêu dày. Cực kỳ cứng cáp. Armor cao</t>
   </si>
   <si>
-    <t>Lv up</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -744,6 +711,9 @@
   </si>
   <si>
     <t>3.20</t>
+  </si>
+  <si>
+    <t>LvUp</t>
   </si>
 </sst>
 </file>
@@ -794,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -830,35 +800,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,12 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1114,7 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
@@ -1182,101 +1127,101 @@
     <col min="21" max="23" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1297,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="R2" s="1">
         <v>50</v>
@@ -1314,8 +1259,8 @@
       <c r="T2" s="1">
         <v>30</v>
       </c>
-      <c r="U2" s="1">
-        <v>5</v>
+      <c r="U2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V2" s="1">
         <v>30</v>
@@ -1326,28 +1271,28 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1368,13 +1313,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="R3" s="1">
         <v>50</v>
@@ -1385,8 +1330,8 @@
       <c r="T3" s="1">
         <v>30</v>
       </c>
-      <c r="U3" s="1">
-        <v>5</v>
+      <c r="U3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V3" s="1">
         <v>30</v>
@@ -1397,28 +1342,28 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1439,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="R4" s="1">
         <v>50</v>
@@ -1456,8 +1401,8 @@
       <c r="T4" s="1">
         <v>30</v>
       </c>
-      <c r="U4" s="1">
-        <v>5</v>
+      <c r="U4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V4" s="1">
         <v>30</v>
@@ -1468,28 +1413,28 @@
     </row>
     <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1510,13 +1455,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="R5" s="1">
         <v>50</v>
@@ -1527,8 +1472,8 @@
       <c r="T5" s="1">
         <v>30</v>
       </c>
-      <c r="U5" s="1">
-        <v>5</v>
+      <c r="U5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V5" s="1">
         <v>30</v>
@@ -1539,28 +1484,28 @@
     </row>
     <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1581,13 +1526,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="R6" s="1">
         <v>50</v>
@@ -1598,8 +1543,8 @@
       <c r="T6" s="1">
         <v>30</v>
       </c>
-      <c r="U6" s="1">
-        <v>5</v>
+      <c r="U6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V6" s="1">
         <v>30</v>
@@ -1610,28 +1555,28 @@
     </row>
     <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1652,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="R7" s="1">
         <v>50</v>
@@ -1669,8 +1614,8 @@
       <c r="T7" s="1">
         <v>30</v>
       </c>
-      <c r="U7" s="1">
-        <v>5</v>
+      <c r="U7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V7" s="1">
         <v>30</v>
@@ -1681,28 +1626,28 @@
     </row>
     <row r="8" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1723,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="R8" s="1">
         <v>50</v>
@@ -1740,8 +1685,8 @@
       <c r="T8" s="1">
         <v>30</v>
       </c>
-      <c r="U8" s="1">
-        <v>5</v>
+      <c r="U8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V8" s="1">
         <v>30</v>
@@ -1752,28 +1697,28 @@
     </row>
     <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1794,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="R9" s="1">
         <v>50</v>
@@ -1811,8 +1756,8 @@
       <c r="T9" s="1">
         <v>30</v>
       </c>
-      <c r="U9" s="1">
-        <v>5</v>
+      <c r="U9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="V9" s="1">
         <v>30</v>
@@ -1823,28 +1768,28 @@
     </row>
     <row r="10" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1865,13 +1810,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="R10" s="1">
         <v>50</v>
@@ -1882,8 +1827,8 @@
       <c r="T10" s="1">
         <v>30</v>
       </c>
-      <c r="U10" s="1">
-        <v>5</v>
+      <c r="U10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>30</v>
@@ -1894,28 +1839,28 @@
     </row>
     <row r="11" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1936,13 +1881,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="R11" s="1">
         <v>50</v>
@@ -1953,8 +1898,8 @@
       <c r="T11" s="1">
         <v>30</v>
       </c>
-      <c r="U11" s="1">
-        <v>5</v>
+      <c r="U11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>30</v>
@@ -1965,28 +1910,28 @@
     </row>
     <row r="12" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2007,13 +1952,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="R12" s="1">
         <v>50</v>
@@ -2024,8 +1969,8 @@
       <c r="T12" s="1">
         <v>30</v>
       </c>
-      <c r="U12" s="1">
-        <v>5</v>
+      <c r="U12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V12" s="1">
         <v>30</v>
@@ -2036,28 +1981,28 @@
     </row>
     <row r="13" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -2078,13 +2023,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="R13" s="1">
         <v>50</v>
@@ -2095,8 +2040,8 @@
       <c r="T13" s="1">
         <v>30</v>
       </c>
-      <c r="U13" s="1">
-        <v>5</v>
+      <c r="U13" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>30</v>
@@ -2107,28 +2052,28 @@
     </row>
     <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2149,13 +2094,13 @@
         <v>10</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="R14" s="1">
         <v>50</v>
@@ -2166,8 +2111,8 @@
       <c r="T14" s="1">
         <v>30</v>
       </c>
-      <c r="U14" s="1">
-        <v>5</v>
+      <c r="U14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V14" s="1">
         <v>30</v>
@@ -2178,28 +2123,28 @@
     </row>
     <row r="15" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2220,13 +2165,13 @@
         <v>10</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="R15" s="1">
         <v>50</v>
@@ -2237,8 +2182,8 @@
       <c r="T15" s="1">
         <v>30</v>
       </c>
-      <c r="U15" s="1">
-        <v>5</v>
+      <c r="U15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V15" s="1">
         <v>30</v>
@@ -2249,28 +2194,28 @@
     </row>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2291,13 +2236,13 @@
         <v>10</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="R16" s="1">
         <v>50</v>
@@ -2308,8 +2253,8 @@
       <c r="T16" s="1">
         <v>30</v>
       </c>
-      <c r="U16" s="1">
-        <v>5</v>
+      <c r="U16" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>30</v>
@@ -2320,28 +2265,28 @@
     </row>
     <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2362,13 +2307,13 @@
         <v>10</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="R17" s="1">
         <v>50</v>
@@ -2379,8 +2324,8 @@
       <c r="T17" s="1">
         <v>30</v>
       </c>
-      <c r="U17" s="1">
-        <v>5</v>
+      <c r="U17" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <v>30</v>
@@ -2416,576 +2361,871 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B048E28A-A4EB-46BF-8861-F461C4338003}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="17" width="11.5703125" customWidth="1"/>
+    <col min="4" max="16" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="P1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="1">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="1">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1">
+        <v>11</v>
+      </c>
+      <c r="O4" s="1">
         <v>13</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P4" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>11</v>
+      </c>
+      <c r="O7" s="1">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>11</v>
+      </c>
+      <c r="O8" s="1">
+        <v>13</v>
+      </c>
+      <c r="P8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>11</v>
+      </c>
+      <c r="O9" s="1">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1">
+        <v>11</v>
+      </c>
+      <c r="O10" s="1">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9</v>
+      </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1">
+        <v>11</v>
+      </c>
+      <c r="O14" s="1">
+        <v>13</v>
+      </c>
+      <c r="P14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="J15" s="1">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8</v>
+      </c>
+      <c r="L15" s="1">
+        <v>9</v>
+      </c>
+      <c r="M15" s="1">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <v>11</v>
+      </c>
+      <c r="O15" s="1">
+        <v>13</v>
+      </c>
+      <c r="P15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="K16" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="L16" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="O16" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="P16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7</v>
+      </c>
+      <c r="K17" s="1">
+        <v>8</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9</v>
+      </c>
+      <c r="M17" s="1">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
+        <v>11</v>
+      </c>
+      <c r="O17" s="1">
+        <v>13</v>
+      </c>
+      <c r="P17" s="1">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>